--- a/02_MasterWifoMannheim/99_Backup/Course46.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course46.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A201159B540F37FBFFA9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23350B3A-F673-4875-AAEB-97DEEB506145}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>ACC 530 Group Accounting</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The course covers the preparation and interpretation of consolidated financial statements based on IFRS. All consolidation and elimination entries necessary to combine the separate statements of financial position and to eliminate the intercompany transactions are introduced. In addition, theoretical models explaining the fundamental approaches to group accounting are presented and discussed.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students know the regulations for group accounting. are able to prepare consolidated financial statements. They learn how consolidation methods impact the consolidated financial statement and are able to interpret group reports.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 minutes) or oral exam</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dirk Simons</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>ACC 511</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACC 530 Group Accounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The course covers the preparation and interpretation of consolidated financial statements based on IFRS. All consolidation and elimination entries necessary to combine the separate statements of financial position and to eliminate the intercompany transactions are introduced. In addition, theoretical models explaining the fundamental approaches to group accounting are presented and discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students know the regulations for group accounting. are able to prepare consolidated financial statements. They learn how consolidation methods impact the consolidated financial statement and are able to interpret group reports.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACC 511</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise Session 2 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (90 minutes) or oral exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Dirk Simons</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
